--- a/data/georgia_census/qvemo-qartli/marneuli/education_graduates.xlsx
+++ b/data/georgia_census/qvemo-qartli/marneuli/education_graduates.xlsx
@@ -1839,13 +1839,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FC449E8-6B3D-4AA3-B5A3-DCC09FF87C46}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{928A7E7B-26B7-4A58-855B-59E411F4D85C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DBA99AB-84DF-44EC-AA6F-EDFC8E8EF5CC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{015B6069-FFD6-42F9-B1D5-0DBF40D8E033}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E5F5667-E28F-48CA-A137-D6068C08E64D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F93E1D17-4D59-47F1-8651-F8922E1E6C25}"/>
 </file>